--- a/build/assets/statics/bdb/TRASLADO SALDOS.xlsx
+++ b/build/assets/statics/bdb/TRASLADO SALDOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squijano\Desktop\BANCO DE BOGOTA\ARCHIVOS AUTOGESTION CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D965E6B5-2ECF-4010-ADA7-1CED0C9489A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897DD37-4875-45E9-9291-BC044835977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="473"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sergio Quijano</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -243,9 +243,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -545,7 +545,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -647,7 +647,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares 2" xfId="1"/>
+    <cellStyle name="Millares 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1203,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M510"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1217,7 +1217,7 @@
     <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.21875" style="2" customWidth="1"/>
     <col min="9" max="9" width="21" style="2" customWidth="1"/>
@@ -5853,7 +5853,7 @@
       <c r="G510" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UtCPz3NOpiio3ml8FWqIVddCCqt4uP+O4eHmQr+uGk0M7K2nYvwqukHyrReIurSepYdAZ88GuVpqvZlfkfSeTA==" saltValue="jlDQGKvxCb00wd2Y9kNuEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KBNHTiMjTVidVSo07hIs0nvD+pva6ye9swSufdik0yr4yFAuenRpVJauNqRuIC5lxqdhzdsxOAzMDwuGt4nCRw==" saltValue="uYorX4zLO0YL4R2/mn021A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="A13:B13 F13:F16 A14:A16 A8:C8 B14:B510 C13:E510 G13:G510 A11:G12" name="Rango1_1"/>
     <protectedRange sqref="A17:A510 F17:F510" name="Rango1_1_1"/>
@@ -5865,34 +5865,34 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E510">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E510" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"AHORRO,CORRIENTE,CONTABLE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C510">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C510" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Cancelacion Definitiva,Traslado Parcial"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D510">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D510" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"T,P"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A510">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A510" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"2"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>1</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>8</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>16</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/build/assets/statics/bdb/TRASLADO SALDOS.xlsx
+++ b/build/assets/statics/bdb/TRASLADO SALDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squijano\Desktop\BANCO DE BOGOTA\ARCHIVOS AUTOGESTION CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897DD37-4875-45E9-9291-BC044835977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE67457-79FC-46DA-BBC4-1F63D0BCF7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>TIPO REGISTRO</t>
   </si>
@@ -225,9 +225,6 @@
     <t xml:space="preserve">No se debe alterar el formato del archivo ya que esto afectará la carga del mismo en el portal Corporativo. </t>
   </si>
   <si>
-    <t>En la fila 8 se debe indicar cuántas tarjetas serán procesadas en este archivo, así como la fecha de cargue del mismo.</t>
-  </si>
-  <si>
     <t>Los títulos de cada columna contienen una Nota, la cual describe el dato a ingresar en cada una de ellas.</t>
   </si>
   <si>
@@ -238,6 +235,12 @@
   </si>
   <si>
     <t>Con las columnas B, E y F se realiza la búsqueda de la tarjeta a debitar el saldo y de la cuenta a la que se acreditará. Si algún dato no coindice, esa línea no será procesada.</t>
+  </si>
+  <si>
+    <t>En la fila 8 del archivo se debe indicar cuántas tarjetas serán procesadas en este archivo, así como la fecha de cargue del mismo.</t>
+  </si>
+  <si>
+    <t>Desde la fila 11 del archivo se deben agregar el listado de tarjetas a procesar. No debe dejar filas vacías. La fila vacía indica fin de archivo.</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -542,12 +545,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +658,16 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,7 +1238,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.21875" style="2" customWidth="1"/>
@@ -1238,7 +1262,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
@@ -1264,7 +1288,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1277,7 +1301,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -1304,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1315,6 +1339,9 @@
         <v>1</v>
       </c>
       <c r="C8" s="21"/>
+      <c r="E8" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
@@ -1354,7 +1381,7 @@
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="16"/>
       <c r="D11" s="25"/>
       <c r="E11" s="16"/>
@@ -1366,7 +1393,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
     </row>
@@ -5853,7 +5880,7 @@
       <c r="G510" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KBNHTiMjTVidVSo07hIs0nvD+pva6ye9swSufdik0yr4yFAuenRpVJauNqRuIC5lxqdhzdsxOAzMDwuGt4nCRw==" saltValue="uYorX4zLO0YL4R2/mn021A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e/iLe0ePkCHUTwCRuwyo2ALwQ60c5VNQiCkA5jjTN3n/Lt3SLHGaCnPVBPzw2wkukViMuqQ9pwosCUJdeQlBSg==" saltValue="1PJe5Wij+0MVXCgndPXKdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A13:B13 F13:F16 A14:A16 A8:C8 B14:B510 C13:E510 G13:G510 A11:G12" name="Rango1_1"/>
     <protectedRange sqref="A17:A510 F17:F510" name="Rango1_1_1"/>
